--- a/Prof. Nedd excel Project 1.xlsx
+++ b/Prof. Nedd excel Project 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/mis_stock_project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B88420-32B6-7644-837E-B82F9BC1D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE97762-786C-9840-96A2-F8ADF1714598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="880" windowWidth="25020" windowHeight="14400" activeTab="3" xr2:uid="{0E1902BE-0C29-774B-A257-2495A3F26356}"/>
+    <workbookView xWindow="4320" yWindow="660" windowWidth="25020" windowHeight="14400" activeTab="3" xr2:uid="{0E1902BE-0C29-774B-A257-2495A3F26356}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple vs. Microsoft Q&amp;A" sheetId="1" r:id="rId1"/>
